--- a/biology/Zoologie/Gos_d'Atura_Català/Gos_d'Atura_Català.xlsx
+++ b/biology/Zoologie/Gos_d'Atura_Català/Gos_d'Atura_Català.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gos_d%27Atura_Catal%C3%A0</t>
+          <t>Gos_d'Atura_Català</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Gos d'Atura (pastor català, ou berger catalan) est une race de chien originaire des Pyrénées catalanes, qui s'est vite développée dans les zones pastorales catalanes grâce à la conduite de troupeaux, sa fonction habituelle. D'après des éleveurs, il est parfait pour cette fonction en raison de sa grande obéissance au berger, mais aussi du fait qu'il sait se montrer capable d'initiatives pour diriger correctement le troupeau. Il peut également être utilisé pour des missions de garde en raison de sa grande bravoure et de son courage, ou encore en tant que chien de compagnie, pour son intelligence et sa fidélité à ses maîtres.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gos_d%27Atura_Catal%C3%A0</t>
+          <t>Gos_d'Atura_Català</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Son histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette race de chiens de berger a la même origine que les autres chiens de berger des hautes montagnes européennes. Il a donc comme proches parents le berger des Pyrénées ou le berger de Bergame. De même on a trouvé dans des sites remontant au néolithique, c’est-à-dire vers 2000 avant J.-C, comme ceux de Minferri, des restes de chiens de taille et de structure similaires. On n’a pu déterminer cependant à quelle époque exactement sont apparus les premiers chiens qu’on puisse considérer comme des bergers catalans, car il n’existe que des dessins datant de deux cents ans pour témoigner de son existence.
 Au sein de la population hétérogène de chiens qui vivaient dans les Pyrénées proprement dites, il a été possible de sélectionner différents spécimens qui ont donné naissance à des normes et des races différentes, comme le petit berger des Pyrénées, le mâtin des Pyrénées, le berger basque ou le berger catalan lui-même. Et au sein de ce groupe, on a pu encore sélectionner des sous-groupes isolés comme le berger du Val d’Aran, le chien de berger de Cerdagne et le chien de berger catalan à poil court, bien qu'ils n'aient aucune reconnaissance officielle.
